--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,6 +58,9 @@
     <t>however</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -67,126 +70,135 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>salad</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>husband</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>cakes</t>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>wife</t>
   </si>
   <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
     <t>rice</t>
   </si>
   <si>
-    <t>bread</t>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>gift</t>
   </si>
   <si>
     <t>potatoes</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>perfectly</t>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>cream</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
+    <t>popcorn</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>keeps</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>tea</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
@@ -196,45 +208,48 @@
     <t>cook</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>works</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
     <t>pan</t>
   </si>
   <si>
-    <t>new</t>
+    <t>every</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>clean</t>
+    <t>makes</t>
   </si>
   <si>
     <t>coffee</t>
   </si>
   <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
     <t>quality</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
@@ -251,6 +266,9 @@
   </si>
   <si>
     <t>use</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>positive</t>
@@ -611,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q66"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,10 +637,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -680,13 +698,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8275862068965517</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -698,19 +716,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -722,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -751,16 +769,16 @@
         <v>15</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>0.9130434782608695</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -772,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -780,13 +798,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4150943396226415</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -798,19 +816,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.890625</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L5">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="M5">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -822,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -830,13 +848,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3565891472868217</v>
+        <v>0.3410852713178295</v>
       </c>
       <c r="C6">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -848,19 +866,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>0.8637770897832817</v>
+        <v>0.8671875</v>
       </c>
       <c r="L6">
-        <v>558</v>
+        <v>111</v>
       </c>
       <c r="M6">
-        <v>558</v>
+        <v>111</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -872,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>88</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -901,16 +919,16 @@
         <v>68</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.8405797101449275</v>
+        <v>0.8637770897832817</v>
       </c>
       <c r="L7">
-        <v>58</v>
+        <v>558</v>
       </c>
       <c r="M7">
-        <v>58</v>
+        <v>558</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -922,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -930,63 +948,87 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.282051282051282</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C8">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>54</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="L8">
+        <v>23</v>
+      </c>
+      <c r="M8">
+        <v>23</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.145945945945946</v>
+      </c>
+      <c r="C9">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>158</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>56</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8">
-        <v>0.8275862068965517</v>
-      </c>
-      <c r="L8">
-        <v>24</v>
-      </c>
-      <c r="M8">
-        <v>24</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="J9" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="K9">
-        <v>0.7445887445887446</v>
+        <v>0.70995670995671</v>
       </c>
       <c r="L9">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="M9">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -998,21 +1040,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K10">
-        <v>0.7142857142857143</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="L10">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M10">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1024,21 +1066,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K11">
-        <v>0.7050847457627119</v>
+        <v>0.6753246753246753</v>
       </c>
       <c r="L11">
-        <v>208</v>
+        <v>52</v>
       </c>
       <c r="M11">
-        <v>208</v>
+        <v>52</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1050,21 +1092,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>87</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K12">
-        <v>0.704225352112676</v>
+        <v>0.6711864406779661</v>
       </c>
       <c r="L12">
-        <v>50</v>
+        <v>198</v>
       </c>
       <c r="M12">
-        <v>50</v>
+        <v>198</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1076,15 +1118,15 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>0.6590909090909091</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L13">
         <v>29</v>
@@ -1102,47 +1144,47 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14">
+        <v>0.6338028169014085</v>
+      </c>
+      <c r="L14">
+        <v>45</v>
+      </c>
+      <c r="M14">
+        <v>45</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>26</v>
-      </c>
-      <c r="K14">
-        <v>0.6444444444444445</v>
-      </c>
-      <c r="L14">
-        <v>29</v>
-      </c>
-      <c r="M14">
-        <v>29</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.6438356164383562</v>
+        <v>0.6308186195826645</v>
       </c>
       <c r="L15">
-        <v>47</v>
+        <v>786</v>
       </c>
       <c r="M15">
-        <v>47</v>
+        <v>786</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1154,21 +1196,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>26</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.6380417335473515</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L16">
-        <v>795</v>
+        <v>40</v>
       </c>
       <c r="M16">
-        <v>795</v>
+        <v>40</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1180,21 +1222,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>451</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.6057142857142858</v>
+        <v>0.6136363636363636</v>
       </c>
       <c r="L17">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1206,21 +1248,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>69</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.578125</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L18">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M18">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1232,21 +1274,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.5301204819277109</v>
+        <v>0.5625</v>
       </c>
       <c r="L19">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M19">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1258,21 +1300,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.5263157894736842</v>
+        <v>0.5625</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1284,47 +1326,47 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.5208333333333334</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="L21">
+        <v>32</v>
+      </c>
+      <c r="M21">
+        <v>32</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>25</v>
-      </c>
-      <c r="M21">
-        <v>25</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>23</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.5147058823529411</v>
+        <v>0.5542857142857143</v>
       </c>
       <c r="L22">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="M22">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1336,21 +1378,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>33</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.5142857142857142</v>
+        <v>0.5329341317365269</v>
       </c>
       <c r="L23">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="M23">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1362,21 +1404,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>34</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.5128205128205128</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="L24">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="M24">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1388,21 +1430,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.5096153846153846</v>
+        <v>0.51</v>
       </c>
       <c r="L25">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M25">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1414,21 +1456,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.5</v>
+        <v>0.5096153846153846</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="M26">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1440,21 +1482,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.4970059880239521</v>
+        <v>0.5</v>
       </c>
       <c r="L27">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1466,21 +1508,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>84</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.4901960784313725</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M28">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1492,21 +1534,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.48</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="L29">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M29">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1518,21 +1560,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.4603174603174603</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="M30">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1544,21 +1586,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>34</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.4337349397590362</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L31">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="M31">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1570,21 +1612,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>94</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.4210526315789473</v>
+        <v>0.4135338345864661</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="M32">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1596,21 +1638,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>44</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.4074074074074074</v>
+        <v>0.3915662650602409</v>
       </c>
       <c r="L33">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="M33">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1622,21 +1664,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>48</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.3909774436090225</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="L34">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="M34">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1648,21 +1690,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>0.3846153846153846</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L35">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M35">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1674,21 +1716,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>0.3846153846153846</v>
+        <v>0.3627450980392157</v>
       </c>
       <c r="L36">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="M36">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1700,21 +1742,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>40</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>0.3651960784313725</v>
+        <v>0.345679012345679</v>
       </c>
       <c r="L37">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="M37">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1726,21 +1768,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>259</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38">
-        <v>0.3579766536964981</v>
+        <v>0.3382352941176471</v>
       </c>
       <c r="L38">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="M38">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1752,21 +1794,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>165</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K39">
-        <v>0.3164383561643835</v>
+        <v>0.3346303501945525</v>
       </c>
       <c r="L39">
-        <v>231</v>
+        <v>86</v>
       </c>
       <c r="M39">
-        <v>231</v>
+        <v>86</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1778,47 +1820,47 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>499</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K40">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="L40">
+        <v>24</v>
+      </c>
+      <c r="M40">
+        <v>24</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>52</v>
-      </c>
-      <c r="K40">
-        <v>0.3063063063063063</v>
-      </c>
-      <c r="L40">
-        <v>34</v>
-      </c>
-      <c r="M40">
-        <v>34</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>77</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K41">
-        <v>0.2980132450331126</v>
+        <v>0.3123287671232877</v>
       </c>
       <c r="L41">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="M41">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1830,21 +1872,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>106</v>
+        <v>502</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K42">
-        <v>0.2949640287769784</v>
+        <v>0.2882882882882883</v>
       </c>
       <c r="L42">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M42">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1856,21 +1898,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K43">
-        <v>0.2932330827067669</v>
+        <v>0.2870813397129187</v>
       </c>
       <c r="L43">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="M43">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1882,21 +1924,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>94</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K44">
-        <v>0.2679425837320574</v>
+        <v>0.2781954887218045</v>
       </c>
       <c r="L44">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="M44">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1908,21 +1950,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>153</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K45">
-        <v>0.2421959095801938</v>
+        <v>0.2781456953642384</v>
       </c>
       <c r="L45">
-        <v>225</v>
+        <v>42</v>
       </c>
       <c r="M45">
-        <v>225</v>
+        <v>42</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1934,21 +1976,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>704</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K46">
-        <v>0.2178217821782178</v>
+        <v>0.2522522522522522</v>
       </c>
       <c r="L46">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M46">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1960,21 +2002,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K47">
-        <v>0.212962962962963</v>
+        <v>0.2517985611510791</v>
       </c>
       <c r="L47">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M47">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1986,21 +2028,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K48">
-        <v>0.2072072072072072</v>
+        <v>0.2381465517241379</v>
       </c>
       <c r="L48">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="M48">
-        <v>23</v>
+        <v>222</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2009,24 +2051,24 @@
         <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>88</v>
+        <v>707</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K49">
-        <v>0.2013245033112583</v>
+        <v>0.2277227722772277</v>
       </c>
       <c r="L49">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="M49">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2038,47 +2080,47 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>603</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K50">
-        <v>0.1987179487179487</v>
+        <v>0.212962962962963</v>
       </c>
       <c r="L50">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="M50">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="N50">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>625</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K51">
-        <v>0.1818181818181818</v>
+        <v>0.2026490066225166</v>
       </c>
       <c r="L51">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="M51">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2090,21 +2132,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>261</v>
+        <v>602</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K52">
-        <v>0.1812080536912752</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="L52">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M52">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2116,47 +2158,47 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K53">
-        <v>0.1540540540540541</v>
+        <v>0.1790281329923274</v>
       </c>
       <c r="L53">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="M53">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="N53">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>313</v>
+        <v>642</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K54">
-        <v>0.1337719298245614</v>
+        <v>0.1692789968652038</v>
       </c>
       <c r="L54">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="M54">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2168,21 +2210,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>395</v>
+        <v>265</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K55">
-        <v>0.125</v>
+        <v>0.1646341463414634</v>
       </c>
       <c r="L55">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="M55">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2194,21 +2236,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>385</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K56">
-        <v>0.1145584725536993</v>
+        <v>0.1447368421052632</v>
       </c>
       <c r="L56">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="M56">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2220,73 +2262,73 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>371</v>
+        <v>390</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K57">
-        <v>0.1119221411192214</v>
+        <v>0.1324324324324324</v>
       </c>
       <c r="L57">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M57">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>365</v>
+        <v>321</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K58">
-        <v>0.1107011070110701</v>
+        <v>0.1185185185185185</v>
       </c>
       <c r="L58">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M58">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K59">
-        <v>0.1050420168067227</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="L59">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M59">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2298,21 +2340,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>213</v>
+        <v>390</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K60">
-        <v>0.1037037037037037</v>
+        <v>0.1083743842364532</v>
       </c>
       <c r="L60">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M60">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2324,21 +2366,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>242</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K61">
-        <v>0.1030927835051546</v>
+        <v>0.1046228710462287</v>
       </c>
       <c r="L61">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M61">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2350,21 +2392,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>261</v>
+        <v>368</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K62">
-        <v>0.07929104477611941</v>
+        <v>0.1</v>
       </c>
       <c r="L62">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="M62">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2376,47 +2418,47 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>987</v>
+        <v>243</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K63">
-        <v>0.06321839080459771</v>
+        <v>0.09663865546218488</v>
       </c>
       <c r="L63">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="M63">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="N63">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>652</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K64">
-        <v>0.06010928961748634</v>
+        <v>0.09307875894988067</v>
       </c>
       <c r="L64">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="M64">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2428,59 +2470,189 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>344</v>
+        <v>380</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K65">
-        <v>0.05545286506469501</v>
+        <v>0.07903780068728522</v>
       </c>
       <c r="L65">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M65">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N65">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>511</v>
+        <v>268</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K66">
-        <v>0.0380952380952381</v>
+        <v>0.07096171802054155</v>
       </c>
       <c r="L66">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="M66">
+        <v>77</v>
+      </c>
+      <c r="N66">
+        <v>0.99</v>
+      </c>
+      <c r="O66">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K67">
+        <v>0.06609195402298851</v>
+      </c>
+      <c r="L67">
         <v>46</v>
       </c>
-      <c r="N66">
+      <c r="M67">
+        <v>48</v>
+      </c>
+      <c r="N67">
         <v>0.96</v>
       </c>
-      <c r="O66">
+      <c r="O67">
         <v>0.04000000000000004</v>
       </c>
-      <c r="P66" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q66">
-        <v>1111</v>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K68">
+        <v>0.06010928961748634</v>
+      </c>
+      <c r="L68">
+        <v>22</v>
+      </c>
+      <c r="M68">
+        <v>22</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K69">
+        <v>0.05350553505535055</v>
+      </c>
+      <c r="L69">
+        <v>29</v>
+      </c>
+      <c r="M69">
+        <v>29</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K70">
+        <v>0.04683434518647007</v>
+      </c>
+      <c r="L70">
+        <v>54</v>
+      </c>
+      <c r="M70">
+        <v>58</v>
+      </c>
+      <c r="N70">
+        <v>0.93</v>
+      </c>
+      <c r="O70">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K71">
+        <v>0.04431599229287091</v>
+      </c>
+      <c r="L71">
+        <v>23</v>
+      </c>
+      <c r="M71">
+        <v>26</v>
+      </c>
+      <c r="N71">
+        <v>0.88</v>
+      </c>
+      <c r="O71">
+        <v>0.12</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>496</v>
       </c>
     </row>
   </sheetData>
